--- a/data/trans_orig/P16A13-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A13-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C484E40-FF05-4ADF-90EF-2FD7936BD9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C875DA74-A94A-4CF5-B3DD-2B03FBF41AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3ACD2B29-2D57-4541-976A-447F36631882}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{929126A5-663C-4718-8532-30597444EA38}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="281">
   <si>
     <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,793 +77,805 @@
     <t>4,56%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
   </si>
   <si>
     <t>5,51%</t>
   </si>
   <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
     <t>4,32%</t>
   </si>
   <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
   </si>
   <si>
     <t>95,68%</t>
   </si>
   <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
+    <t>93,94%</t>
   </si>
   <si>
     <t>96,46%</t>
   </si>
   <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
   </si>
   <si>
     <t>7,36%</t>
   </si>
   <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
   </si>
   <si>
     <t>92,64%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
   </si>
   <si>
     <t>92,06%</t>
@@ -1281,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB437DE-31C8-4892-8C66-E4C0D39AAB85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F4414A-8363-4AB3-96AA-05FA6319293A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1873,10 +1885,10 @@
         <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="H13" s="7">
         <v>122</v>
@@ -1885,13 +1897,13 @@
         <v>121472</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="M13" s="7">
         <v>207</v>
@@ -1900,13 +1912,13 @@
         <v>208067</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,16 +1930,16 @@
         <v>3128</v>
       </c>
       <c r="D14" s="7">
-        <v>3188930</v>
+        <v>3188931</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="H14" s="7">
         <v>3175</v>
@@ -1936,28 +1948,28 @@
         <v>3257726</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>6303</v>
       </c>
       <c r="N14" s="7">
-        <v>6446655</v>
+        <v>6446656</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,7 +1981,7 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1999,7 +2011,7 @@
         <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2013,7 +2025,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2032,7 +2044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EC99E8-A26C-4005-A30B-0D3A54AB4EF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B165485F-114D-4E13-ABAB-594DB74EB817}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2049,7 +2061,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2156,13 +2168,13 @@
         <v>66946</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H4" s="7">
         <v>105</v>
@@ -2171,13 +2183,13 @@
         <v>109616</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M4" s="7">
         <v>164</v>
@@ -2186,13 +2198,13 @@
         <v>176562</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2207,13 +2219,13 @@
         <v>901528</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H5" s="7">
         <v>1138</v>
@@ -2222,13 +2234,13 @@
         <v>1223911</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>1983</v>
@@ -2237,13 +2249,13 @@
         <v>2125439</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2311,13 +2323,13 @@
         <v>55551</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>48</v>
@@ -2326,13 +2338,13 @@
         <v>56314</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>99</v>
@@ -2341,13 +2353,13 @@
         <v>111865</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,13 +2374,13 @@
         <v>1904471</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H8" s="7">
         <v>1582</v>
@@ -2377,13 +2389,13 @@
         <v>1695535</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M8" s="7">
         <v>3383</v>
@@ -2392,10 +2404,10 @@
         <v>3600006</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>120</v>
@@ -2657,7 +2669,7 @@
         <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,13 +2684,13 @@
         <v>3268565</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>3110</v>
@@ -2687,13 +2699,13 @@
         <v>3352936</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>6180</v>
@@ -2702,13 +2714,13 @@
         <v>6621499</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2764,7 +2776,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2783,7 +2795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FD0450-F9EF-44E7-AECB-50E637C41130}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC18BED-AB90-4487-9D3A-BC8D5E357EC3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2800,7 +2812,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2907,13 +2919,13 @@
         <v>35154</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>62</v>
@@ -2922,13 +2934,13 @@
         <v>73011</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>99</v>
@@ -2937,13 +2949,13 @@
         <v>108165</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,13 +2970,13 @@
         <v>719193</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>830</v>
@@ -2973,13 +2985,13 @@
         <v>921649</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>1555</v>
@@ -2988,13 +3000,13 @@
         <v>1640842</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,13 +3074,13 @@
         <v>48833</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>48</v>
@@ -3077,13 +3089,13 @@
         <v>53013</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>91</v>
@@ -3092,13 +3104,13 @@
         <v>101847</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3125,13 @@
         <v>2027552</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>1860</v>
@@ -3128,13 +3140,13 @@
         <v>1935287</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7">
         <v>3769</v>
@@ -3143,13 +3155,13 @@
         <v>3962838</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +3229,13 @@
         <v>14727</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -3232,13 +3244,13 @@
         <v>17713</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -3247,13 +3259,13 @@
         <v>32440</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,13 +3280,13 @@
         <v>532159</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="H11" s="7">
         <v>511</v>
@@ -3283,13 +3295,13 @@
         <v>531427</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M11" s="7">
         <v>1000</v>
@@ -3298,13 +3310,13 @@
         <v>1063586</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>205</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3375,10 +3387,10 @@
         <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H13" s="7">
         <v>125</v>
@@ -3426,10 +3438,10 @@
         <v>214</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>3201</v>
@@ -3515,7 +3527,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3534,7 +3546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A983E900-5243-433F-8E5F-FEDF4123D49B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874F3BBC-49ED-4666-9A76-8248CBDB5107}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3816,7 +3828,7 @@
         <v>241</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>242</v>
@@ -3846,7 +3858,7 @@
         <v>245</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>246</v>
@@ -3870,7 +3882,7 @@
         <v>248</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>204</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
         <v>2679</v>
@@ -3900,7 +3912,7 @@
         <v>252</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3971,10 +3983,10 @@
         <v>253</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -3983,13 +3995,13 @@
         <v>33242</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>256</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M10" s="7">
         <v>110</v>
@@ -3998,13 +4010,13 @@
         <v>72133</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>257</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,13 +4031,13 @@
         <v>634148</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>26</v>
+        <v>261</v>
       </c>
       <c r="H11" s="7">
         <v>947</v>
@@ -4034,13 +4046,13 @@
         <v>680644</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="M11" s="7">
         <v>1575</v>
@@ -4049,13 +4061,13 @@
         <v>1314793</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>29</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4135,13 @@
         <v>216441</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H13" s="7">
         <v>596</v>
@@ -4138,13 +4150,13 @@
         <v>311036</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M13" s="7">
         <v>888</v>
@@ -4153,13 +4165,13 @@
         <v>527478</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>164</v>
+        <v>270</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,13 +4186,13 @@
         <v>3159183</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H14" s="7">
         <v>4752</v>
@@ -4189,13 +4201,13 @@
         <v>3483570</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M14" s="7">
         <v>7823</v>
@@ -4204,13 +4216,13 @@
         <v>6642752</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>172</v>
+        <v>278</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,7 +4278,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A13-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A13-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C875DA74-A94A-4CF5-B3DD-2B03FBF41AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FDFB634-AF5D-48E4-B8AF-E5D091266FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{929126A5-663C-4718-8532-30597444EA38}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{09B189CE-2099-423A-A801-B9D1B27F30B8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="285">
   <si>
     <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>4,56%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
   </si>
   <si>
     <t>5,51%</t>
   </si>
   <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
   </si>
   <si>
     <t>5,09%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>95,44%</t>
   </si>
   <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
   </si>
   <si>
     <t>94,49%</t>
   </si>
   <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
   </si>
   <si>
     <t>94,91%</t>
   </si>
   <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,748 +140,760 @@
     <t>1,4%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>1,92%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
   </si>
   <si>
     <t>96,45%</t>
   </si>
   <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
+    <t>94,8%</t>
   </si>
   <si>
     <t>93,68%</t>
   </si>
   <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
+    <t>95,82%</t>
   </si>
   <si>
     <t>6,41%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
   </si>
   <si>
     <t>8,2%</t>
   </si>
   <si>
-    <t>8,92%</t>
+    <t>7,29%</t>
   </si>
   <si>
     <t>7,36%</t>
   </si>
   <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
+    <t>7,89%</t>
   </si>
   <si>
     <t>93,59%</t>
   </si>
   <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
   </si>
   <si>
     <t>91,8%</t>
   </si>
   <si>
-    <t>91,08%</t>
+    <t>92,71%</t>
   </si>
   <si>
     <t>92,64%</t>
   </si>
   <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
+    <t>92,11%</t>
   </si>
 </sst>
 </file>
@@ -1293,7 +1305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F4414A-8363-4AB3-96AA-05FA6319293A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A15CE5-0AC9-4CDD-B744-A36FB841BA01}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1885,10 +1897,10 @@
         <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>122</v>
@@ -1897,13 +1909,13 @@
         <v>121472</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>207</v>
@@ -1912,13 +1924,13 @@
         <v>208067</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,16 +1942,16 @@
         <v>3128</v>
       </c>
       <c r="D14" s="7">
-        <v>3188931</v>
+        <v>3188930</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3175</v>
@@ -1948,13 +1960,13 @@
         <v>3257726</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6303</v>
@@ -1963,13 +1975,13 @@
         <v>6446656</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,7 +1993,7 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2025,7 +2037,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2044,7 +2056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B165485F-114D-4E13-ABAB-594DB74EB817}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7254CEC7-729F-4195-9EEE-EE5679145ECE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2061,7 +2073,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2168,13 +2180,13 @@
         <v>66946</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>105</v>
@@ -2183,13 +2195,13 @@
         <v>109616</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>164</v>
@@ -2198,13 +2210,13 @@
         <v>176562</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2219,13 +2231,13 @@
         <v>901528</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>1138</v>
@@ -2234,13 +2246,13 @@
         <v>1223911</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1983</v>
@@ -2249,13 +2261,13 @@
         <v>2125439</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,13 +2335,13 @@
         <v>55551</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>48</v>
@@ -2338,13 +2350,13 @@
         <v>56314</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>99</v>
@@ -2353,13 +2365,13 @@
         <v>111865</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,13 +2386,13 @@
         <v>1904471</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>1582</v>
@@ -2389,13 +2401,13 @@
         <v>1695535</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>3383</v>
@@ -2404,13 +2416,13 @@
         <v>3600006</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,13 +2490,13 @@
         <v>17767</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -2493,13 +2505,13 @@
         <v>24165</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -2508,13 +2520,13 @@
         <v>41932</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2529,13 +2541,13 @@
         <v>462565</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>390</v>
@@ -2544,13 +2556,13 @@
         <v>433489</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>814</v>
@@ -2559,13 +2571,13 @@
         <v>896054</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,13 +2645,13 @@
         <v>140263</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7">
         <v>174</v>
@@ -2648,13 +2660,13 @@
         <v>190095</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M13" s="7">
         <v>297</v>
@@ -2663,13 +2675,13 @@
         <v>330359</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,13 +2696,13 @@
         <v>3268565</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="H14" s="7">
         <v>3110</v>
@@ -2699,13 +2711,13 @@
         <v>3352936</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>6180</v>
@@ -2714,13 +2726,13 @@
         <v>6621499</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,7 +2788,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2795,7 +2807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC18BED-AB90-4487-9D3A-BC8D5E357EC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D59673-F07C-4918-A91B-3F45F6EB00E3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2812,7 +2824,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2919,13 +2931,13 @@
         <v>35154</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>62</v>
@@ -2934,13 +2946,13 @@
         <v>73011</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>99</v>
@@ -2949,13 +2961,13 @@
         <v>108165</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,13 +2982,13 @@
         <v>719193</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>830</v>
@@ -2985,13 +2997,13 @@
         <v>921649</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>1555</v>
@@ -3000,7 +3012,7 @@
         <v>1640842</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>174</v>
@@ -3080,7 +3092,7 @@
         <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="H7" s="7">
         <v>48</v>
@@ -3089,13 +3101,13 @@
         <v>53013</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>91</v>
@@ -3104,13 +3116,13 @@
         <v>101847</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,10 +3140,10 @@
         <v>184</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>1860</v>
@@ -3140,13 +3152,13 @@
         <v>1935287</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M8" s="7">
         <v>3769</v>
@@ -3155,10 +3167,10 @@
         <v>3962838</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>191</v>
@@ -3232,10 +3244,10 @@
         <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -3244,13 +3256,13 @@
         <v>17713</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -3259,13 +3271,13 @@
         <v>32440</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,13 +3292,13 @@
         <v>532159</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>41</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
         <v>511</v>
@@ -3295,13 +3307,13 @@
         <v>531427</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
         <v>1000</v>
@@ -3310,13 +3322,13 @@
         <v>1063586</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>47</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3384,13 +3396,13 @@
         <v>98714</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>207</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>125</v>
@@ -3399,13 +3411,13 @@
         <v>143737</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>217</v>
@@ -3414,13 +3426,13 @@
         <v>242452</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,13 +3447,13 @@
         <v>3278904</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>3201</v>
@@ -3450,13 +3462,13 @@
         <v>3388363</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>6324</v>
@@ -3465,13 +3477,13 @@
         <v>6667266</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,7 +3539,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3546,7 +3558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874F3BBC-49ED-4666-9A76-8248CBDB5107}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0ECE55-9D9F-4F9C-B16C-EEF791B7F229}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3563,7 +3575,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3670,13 +3682,13 @@
         <v>70198</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>298</v>
@@ -3685,13 +3697,13 @@
         <v>151344</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>403</v>
@@ -3700,13 +3712,13 @@
         <v>221541</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,13 +3733,13 @@
         <v>470365</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>1126</v>
@@ -3736,13 +3748,13 @@
         <v>680581</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>1711</v>
@@ -3751,13 +3763,13 @@
         <v>1150947</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,13 +3837,13 @@
         <v>107353</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H7" s="7">
         <v>241</v>
@@ -3840,13 +3852,13 @@
         <v>126451</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M7" s="7">
         <v>375</v>
@@ -3855,13 +3867,13 @@
         <v>233804</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,25 +3888,25 @@
         <v>2054669</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="H8" s="7">
         <v>2679</v>
       </c>
       <c r="I8" s="7">
-        <v>2122345</v>
+        <v>2122344</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -3906,13 +3918,13 @@
         <v>4177013</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,7 +3951,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2248795</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3980,13 +3992,13 @@
         <v>38891</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>254</v>
+        <v>149</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -3995,13 +4007,13 @@
         <v>33242</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M10" s="7">
         <v>110</v>
@@ -4010,13 +4022,13 @@
         <v>72133</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>146</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>123</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +4043,13 @@
         <v>634148</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>261</v>
+        <v>158</v>
       </c>
       <c r="H11" s="7">
         <v>947</v>
@@ -4046,13 +4058,13 @@
         <v>680644</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M11" s="7">
         <v>1575</v>
@@ -4061,13 +4073,13 @@
         <v>1314793</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>131</v>
+        <v>269</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>156</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,13 +4147,13 @@
         <v>216441</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="H13" s="7">
         <v>596</v>
@@ -4150,13 +4162,13 @@
         <v>311036</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>888</v>
@@ -4165,13 +4177,13 @@
         <v>527478</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>271</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,13 +4198,13 @@
         <v>3159183</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="H14" s="7">
         <v>4752</v>
@@ -4201,13 +4213,13 @@
         <v>3483570</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>277</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="M14" s="7">
         <v>7823</v>
@@ -4216,13 +4228,13 @@
         <v>6642752</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>280</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,7 +4290,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A13-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A13-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FDFB634-AF5D-48E4-B8AF-E5D091266FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC94DFEE-2789-469C-A638-1CBBAAE2F9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{09B189CE-2099-423A-A801-B9D1B27F30B8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DFEA7D6B-A5F4-4BB9-8AFC-441995B292AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="277">
   <si>
     <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>4,56%</t>
   </si>
   <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
   </si>
   <si>
     <t>5,51%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
   </si>
   <si>
     <t>5,09%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>95,44%</t>
   </si>
   <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
   </si>
   <si>
     <t>94,49%</t>
   </si>
   <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
   </si>
   <si>
     <t>94,91%</t>
   </si>
   <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,463 +140,460 @@
     <t>1,4%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>1,97%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
   </si>
   <si>
     <t>3,46%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
   </si>
   <si>
     <t>96,54%</t>
   </si>
   <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
   </si>
   <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>96,85%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
+    <t>98,28%</t>
   </si>
   <si>
     <t>97,33%</t>
@@ -605,118 +602,109 @@
     <t>96,44%</t>
   </si>
   <si>
-    <t>97,93%</t>
+    <t>98,01%</t>
   </si>
   <si>
     <t>97,49%</t>
   </si>
   <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
+    <t>96,94%</t>
   </si>
   <si>
     <t>2,69%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
+    <t>4,65%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
   </si>
   <si>
     <t>97,31%</t>
   </si>
   <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
+    <t>95,35%</t>
   </si>
   <si>
     <t>96,77%</t>
   </si>
   <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
   </si>
   <si>
     <t>97,04%</t>
   </si>
   <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
   </si>
   <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>2,38%</t>
+    <t>2,39%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
   </si>
   <si>
     <t>3,51%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
   </si>
   <si>
     <t>97,08%</t>
   </si>
   <si>
-    <t>97,62%</t>
+    <t>97,61%</t>
   </si>
   <si>
     <t>95,93%</t>
   </si>
   <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
   </si>
   <si>
     <t>96,49%</t>
   </si>
   <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
@@ -725,124 +713,115 @@
     <t>12,99%</t>
   </si>
   <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
   </si>
   <si>
     <t>18,19%</t>
   </si>
   <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
   </si>
   <si>
     <t>16,14%</t>
   </si>
   <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
   </si>
   <si>
     <t>87,01%</t>
   </si>
   <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
   </si>
   <si>
     <t>81,81%</t>
   </si>
   <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
   </si>
   <si>
     <t>83,86%</t>
   </si>
   <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
   </si>
   <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>5,91%</t>
+    <t>5,95%</t>
   </si>
   <si>
     <t>5,62%</t>
   </si>
   <si>
-    <t>6,42%</t>
+    <t>6,48%</t>
   </si>
   <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>5,94%</t>
+    <t>5,96%</t>
   </si>
   <si>
     <t>95,03%</t>
   </si>
   <si>
-    <t>94,09%</t>
+    <t>94,05%</t>
   </si>
   <si>
     <t>94,38%</t>
   </si>
   <si>
-    <t>93,58%</t>
+    <t>93,52%</t>
   </si>
   <si>
     <t>94,7%</t>
   </si>
   <si>
-    <t>94,06%</t>
+    <t>94,04%</t>
   </si>
   <si>
     <t>5,78%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
   </si>
   <si>
     <t>5,2%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
     <t>6,32%</t>
   </si>
   <si>
     <t>94,22%</t>
   </si>
   <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
   </si>
   <si>
     <t>94,8%</t>
@@ -851,49 +830,46 @@
     <t>93,68%</t>
   </si>
   <si>
-    <t>95,82%</t>
-  </si>
-  <si>
     <t>6,41%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
   </si>
   <si>
     <t>8,2%</t>
   </si>
   <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
   </si>
   <si>
     <t>93,59%</t>
   </si>
   <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
   </si>
   <si>
     <t>91,8%</t>
   </si>
   <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A15CE5-0AC9-4CDD-B744-A36FB841BA01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E42B57A-4499-4087-B441-AEE00B4EA528}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1915,7 +1891,7 @@
         <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="M13" s="7">
         <v>207</v>
@@ -1924,13 +1900,13 @@
         <v>208067</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1945,13 +1921,13 @@
         <v>3188930</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3175</v>
@@ -1960,28 +1936,28 @@
         <v>3257726</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6303</v>
       </c>
       <c r="N14" s="7">
-        <v>6446656</v>
+        <v>6446655</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,7 +1999,7 @@
         <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2037,7 +2013,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2056,7 +2032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7254CEC7-729F-4195-9EEE-EE5679145ECE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A7466B-71BB-4C56-8B5E-C5EBCBBAB4C8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2073,7 +2049,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2180,13 +2156,13 @@
         <v>66946</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>105</v>
@@ -2195,13 +2171,13 @@
         <v>109616</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>164</v>
@@ -2210,13 +2186,13 @@
         <v>176562</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2231,13 +2207,13 @@
         <v>901528</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>1138</v>
@@ -2246,13 +2222,13 @@
         <v>1223911</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1983</v>
@@ -2261,13 +2237,13 @@
         <v>2125439</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2335,13 +2311,13 @@
         <v>55551</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>48</v>
@@ -2350,13 +2326,13 @@
         <v>56314</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>99</v>
@@ -2365,13 +2341,13 @@
         <v>111865</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,13 +2362,13 @@
         <v>1904471</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H8" s="7">
         <v>1582</v>
@@ -2401,13 +2377,13 @@
         <v>1695535</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M8" s="7">
         <v>3383</v>
@@ -2416,13 +2392,13 @@
         <v>3600006</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,13 +2466,13 @@
         <v>17767</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -2505,13 +2481,13 @@
         <v>24165</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -2520,13 +2496,13 @@
         <v>41932</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2541,13 +2517,13 @@
         <v>462565</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>390</v>
@@ -2556,13 +2532,13 @@
         <v>433489</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>814</v>
@@ -2571,13 +2547,13 @@
         <v>896054</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,13 +2621,13 @@
         <v>140263</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>174</v>
@@ -2660,13 +2636,13 @@
         <v>190095</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>297</v>
@@ -2675,13 +2651,13 @@
         <v>330359</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2672,13 @@
         <v>3268565</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="H14" s="7">
         <v>3110</v>
@@ -2711,13 +2687,13 @@
         <v>3352936</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M14" s="7">
         <v>6180</v>
@@ -2726,13 +2702,13 @@
         <v>6621499</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,7 +2764,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2807,7 +2783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D59673-F07C-4918-A91B-3F45F6EB00E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139F4A00-6046-42BC-86D3-0385C4D924DD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2824,7 +2800,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2931,13 +2907,13 @@
         <v>35154</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>62</v>
@@ -2946,13 +2922,13 @@
         <v>73011</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>99</v>
@@ -2961,13 +2937,13 @@
         <v>108165</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,13 +2958,13 @@
         <v>719193</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>830</v>
@@ -2997,13 +2973,13 @@
         <v>921649</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>1555</v>
@@ -3012,13 +2988,13 @@
         <v>1640842</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,13 +3062,13 @@
         <v>48833</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H7" s="7">
         <v>48</v>
@@ -3101,13 +3077,13 @@
         <v>53013</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M7" s="7">
         <v>91</v>
@@ -3116,13 +3092,13 @@
         <v>101847</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,13 +3113,13 @@
         <v>2027552</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>1860</v>
@@ -3152,13 +3128,13 @@
         <v>1935287</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>3769</v>
@@ -3167,13 +3143,13 @@
         <v>3962838</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,13 +3217,13 @@
         <v>14727</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -3256,13 +3232,13 @@
         <v>17713</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -3271,13 +3247,13 @@
         <v>32440</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,13 +3268,13 @@
         <v>532159</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>63</v>
       </c>
       <c r="H11" s="7">
         <v>511</v>
@@ -3307,13 +3283,13 @@
         <v>531427</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M11" s="7">
         <v>1000</v>
@@ -3322,13 +3298,13 @@
         <v>1063586</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,13 +3372,13 @@
         <v>98714</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H13" s="7">
         <v>125</v>
@@ -3411,13 +3387,13 @@
         <v>143737</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M13" s="7">
         <v>217</v>
@@ -3426,13 +3402,13 @@
         <v>242452</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,13 +3423,13 @@
         <v>3278904</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H14" s="7">
         <v>3201</v>
@@ -3462,13 +3438,13 @@
         <v>3388363</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M14" s="7">
         <v>6324</v>
@@ -3477,13 +3453,13 @@
         <v>6667266</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,7 +3515,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3558,7 +3534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0ECE55-9D9F-4F9C-B16C-EEF791B7F229}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223222AF-4CC0-4E35-894F-B08222C4E39D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3575,7 +3551,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3682,13 +3658,13 @@
         <v>70198</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>298</v>
@@ -3697,13 +3673,13 @@
         <v>151344</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>403</v>
@@ -3712,13 +3688,13 @@
         <v>221541</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,13 +3709,13 @@
         <v>470365</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H5" s="7">
         <v>1126</v>
@@ -3748,13 +3724,13 @@
         <v>680581</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M5" s="7">
         <v>1711</v>
@@ -3763,13 +3739,13 @@
         <v>1150947</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,13 +3813,13 @@
         <v>107353</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H7" s="7">
         <v>241</v>
@@ -3852,13 +3828,13 @@
         <v>126451</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M7" s="7">
         <v>375</v>
@@ -3867,13 +3843,13 @@
         <v>233804</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,25 +3864,25 @@
         <v>2054669</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="H8" s="7">
         <v>2679</v>
       </c>
       <c r="I8" s="7">
-        <v>2122344</v>
+        <v>2122345</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -3918,13 +3894,13 @@
         <v>4177013</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,7 +3927,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248795</v>
+        <v>2248796</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3992,13 +3968,13 @@
         <v>38891</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -4007,13 +3983,13 @@
         <v>33242</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>259</v>
+        <v>37</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="M10" s="7">
         <v>110</v>
@@ -4022,13 +3998,13 @@
         <v>72133</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,13 +4019,13 @@
         <v>634148</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
         <v>947</v>
@@ -4058,13 +4034,13 @@
         <v>680644</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="M11" s="7">
         <v>1575</v>
@@ -4073,13 +4049,13 @@
         <v>1314793</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>270</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4123,13 @@
         <v>216441</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="H13" s="7">
         <v>596</v>
@@ -4162,13 +4138,13 @@
         <v>311036</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>267</v>
       </c>
       <c r="M13" s="7">
         <v>888</v>
@@ -4177,13 +4153,13 @@
         <v>527478</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>276</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>268</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,13 +4174,13 @@
         <v>3159183</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="H14" s="7">
         <v>4752</v>
@@ -4213,13 +4189,13 @@
         <v>3483570</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>274</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="M14" s="7">
         <v>7823</v>
@@ -4228,13 +4204,13 @@
         <v>6642752</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>283</v>
+        <v>172</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,7 +4266,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A13-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A13-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC94DFEE-2789-469C-A638-1CBBAAE2F9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{083AE8B1-6BBE-4C0C-8735-35FC077179FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DFEA7D6B-A5F4-4BB9-8AFC-441995B292AE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BBA8EFDA-97AA-4C8B-9F6B-B811AEADDD21}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="287">
   <si>
     <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -710,166 +710,196 @@
     <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
   <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
   </si>
   <si>
     <t>6,32%</t>
   </si>
   <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
   </si>
   <si>
     <t>93,68%</t>
   </si>
   <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E42B57A-4499-4087-B441-AEE00B4EA528}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B18A73-1CEB-4EC1-A623-F6AB7E7876CE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1483,7 +1513,7 @@
         <v>2208</v>
       </c>
       <c r="N5" s="7">
-        <v>2227284</v>
+        <v>2227283</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1534,7 +1564,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1638,7 +1668,7 @@
         <v>3138</v>
       </c>
       <c r="N8" s="7">
-        <v>3214157</v>
+        <v>3214156</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1689,7 +1719,7 @@
         <v>3202</v>
       </c>
       <c r="N9" s="7">
-        <v>3280068</v>
+        <v>3280067</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1933,7 +1963,7 @@
         <v>3175</v>
       </c>
       <c r="I14" s="7">
-        <v>3257726</v>
+        <v>3257725</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>80</v>
@@ -1984,7 +2014,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2032,7 +2062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A7466B-71BB-4C56-8B5E-C5EBCBBAB4C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11478CB1-B127-453C-8029-07F146A75BEF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2783,7 +2813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139F4A00-6046-42BC-86D3-0385C4D924DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4718F97-7448-4092-A71E-0C68C2B4CD32}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3295,7 +3325,7 @@
         <v>1000</v>
       </c>
       <c r="N11" s="7">
-        <v>1063586</v>
+        <v>1063587</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>203</v>
@@ -3346,7 +3376,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3534,7 +3564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223222AF-4CC0-4E35-894F-B08222C4E39D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDE6ECD-F40B-4927-BA8E-CB8A39FD2809}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3655,7 +3685,7 @@
         <v>105</v>
       </c>
       <c r="D4" s="7">
-        <v>70198</v>
+        <v>66402</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>223</v>
@@ -3670,7 +3700,7 @@
         <v>298</v>
       </c>
       <c r="I4" s="7">
-        <v>151344</v>
+        <v>138401</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>226</v>
@@ -3685,7 +3715,7 @@
         <v>403</v>
       </c>
       <c r="N4" s="7">
-        <v>221541</v>
+        <v>204803</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>229</v>
@@ -3706,7 +3736,7 @@
         <v>585</v>
       </c>
       <c r="D5" s="7">
-        <v>470365</v>
+        <v>447540</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>232</v>
@@ -3721,7 +3751,7 @@
         <v>1126</v>
       </c>
       <c r="I5" s="7">
-        <v>680581</v>
+        <v>613661</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>235</v>
@@ -3736,7 +3766,7 @@
         <v>1711</v>
       </c>
       <c r="N5" s="7">
-        <v>1150947</v>
+        <v>1061201</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>238</v>
@@ -3757,7 +3787,7 @@
         <v>690</v>
       </c>
       <c r="D6" s="7">
-        <v>540563</v>
+        <v>513942</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3772,7 +3802,7 @@
         <v>1424</v>
       </c>
       <c r="I6" s="7">
-        <v>831925</v>
+        <v>752062</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3787,7 +3817,7 @@
         <v>2114</v>
       </c>
       <c r="N6" s="7">
-        <v>1372488</v>
+        <v>1266004</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3810,13 +3840,13 @@
         <v>134</v>
       </c>
       <c r="D7" s="7">
-        <v>107353</v>
+        <v>104212</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>241</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>242</v>
@@ -3825,31 +3855,31 @@
         <v>241</v>
       </c>
       <c r="I7" s="7">
-        <v>126451</v>
+        <v>116987</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>243</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>244</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M7" s="7">
         <v>375</v>
       </c>
       <c r="N7" s="7">
-        <v>233804</v>
+        <v>221199</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>156</v>
+        <v>247</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,46 +3891,46 @@
         <v>1858</v>
       </c>
       <c r="D8" s="7">
-        <v>2054669</v>
+        <v>2186115</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>204</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
         <v>2679</v>
       </c>
       <c r="I8" s="7">
-        <v>2122345</v>
+        <v>2120158</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>253</v>
       </c>
       <c r="M8" s="7">
         <v>4537</v>
       </c>
       <c r="N8" s="7">
-        <v>4177013</v>
+        <v>4306273</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>165</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,7 +3942,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3927,7 +3957,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2237145</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3942,7 +3972,7 @@
         <v>4912</v>
       </c>
       <c r="N9" s="7">
-        <v>4410817</v>
+        <v>4527472</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3965,46 +3995,46 @@
         <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>38891</v>
+        <v>36879</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
       </c>
       <c r="I10" s="7">
-        <v>33242</v>
+        <v>30533</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>260</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="M10" s="7">
         <v>110</v>
       </c>
       <c r="N10" s="7">
-        <v>72133</v>
+        <v>67412</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,46 +4046,46 @@
         <v>628</v>
       </c>
       <c r="D11" s="7">
-        <v>634148</v>
+        <v>609744</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>26</v>
+        <v>267</v>
       </c>
       <c r="H11" s="7">
         <v>947</v>
       </c>
       <c r="I11" s="7">
-        <v>680644</v>
+        <v>629930</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="M11" s="7">
         <v>1575</v>
       </c>
       <c r="N11" s="7">
-        <v>1314793</v>
+        <v>1239674</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>29</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,7 +4097,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4082,7 +4112,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4097,7 +4127,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4120,46 +4150,46 @@
         <v>292</v>
       </c>
       <c r="D13" s="7">
-        <v>216441</v>
+        <v>207493</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>264</v>
+        <v>156</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
         <v>596</v>
       </c>
       <c r="I13" s="7">
-        <v>311036</v>
+        <v>285921</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="M13" s="7">
         <v>888</v>
       </c>
       <c r="N13" s="7">
-        <v>527478</v>
+        <v>493414</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>164</v>
+        <v>277</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,28 +4201,28 @@
         <v>3071</v>
       </c>
       <c r="D14" s="7">
-        <v>3159183</v>
+        <v>3243399</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>272</v>
+        <v>165</v>
       </c>
       <c r="H14" s="7">
         <v>4752</v>
       </c>
       <c r="I14" s="7">
-        <v>3483570</v>
+        <v>3363749</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>271</v>
@@ -4201,16 +4231,16 @@
         <v>7823</v>
       </c>
       <c r="N14" s="7">
-        <v>6642752</v>
+        <v>6607148</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>172</v>
+        <v>284</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,7 +4252,7 @@
         <v>3363</v>
       </c>
       <c r="D15" s="7">
-        <v>3375624</v>
+        <v>3450892</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4237,7 +4267,7 @@
         <v>5348</v>
       </c>
       <c r="I15" s="7">
-        <v>3794606</v>
+        <v>3649670</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4252,7 +4282,7 @@
         <v>8711</v>
       </c>
       <c r="N15" s="7">
-        <v>7170230</v>
+        <v>7100562</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
